--- a/shujuqudong_ddt/123.xlsx
+++ b/shujuqudong_ddt/123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\untitled1\jiekou_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\test_001\shujuqudong_ddt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1607E911-F7D5-41C6-9544-E13EAED63372}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A724D3-806C-484D-8695-3F5EB68E4A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="14940" windowHeight="6165" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>adm</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FCF93F-2C00-445F-933A-1743373F4079}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -460,6 +460,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -468,20 +471,7 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/shujuqudong_ddt/123.xlsx
+++ b/shujuqudong_ddt/123.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\test_001\shujuqudong_ddt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A724D3-806C-484D-8695-3F5EB68E4A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCB87A-1047-4E74-B725-598B8499A640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,17 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>adm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>asdm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -446,17 +442,17 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
